--- a/Excel/StartProcessConfig.xlsx
+++ b/Excel/StartProcessConfig.xlsx
@@ -1,87 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28000" windowHeight="15780"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>id</t>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>所属机器</t>
+  </si>
+  <si>
+    <t>内网端口</t>
   </si>
   <si>
     <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InnerIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>MachineId</t>
   </si>
   <si>
-    <t>内网地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>InnerPort</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外网地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OuterIP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.2</t>
-  </si>
-  <si>
-    <t>内网端口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InnerPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -89,7 +62,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -97,11 +69,161 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +236,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -123,37 +431,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -202,7 +796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,7 +831,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,99 +1034,84 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F7" sqref="F1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="6" width="12.625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="3:5">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
+    <row r="6" s="1" customFormat="1" spans="3:5">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="4">
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20001</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>20002</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/StartProcessConfig.xlsx
+++ b/Excel/StartProcessConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15780"/>
+    <workbookView windowHeight="15980"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
-    <t>id</t>
+    <t>Id</t>
   </si>
   <si>
     <t>所属机器</t>
   </si>
   <si>
     <t>内网端口</t>
-  </si>
-  <si>
-    <t>_id</t>
   </si>
   <si>
     <t>MachineId</t>
@@ -47,8 +44,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -79,6 +76,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -86,11 +91,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,122 +205,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +447,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -474,17 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,21 +508,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,145 +529,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1043,7 +1040,7 @@
   <dimension ref="C3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F1:F7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1067,24 +1064,24 @@
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:5">

--- a/Excel/StartProcessConfig.xlsx
+++ b/Excel/StartProcessConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>Id</t>
   </si>
@@ -33,9 +33,6 @@
   <si>
     <t>int</t>
   </si>
-  <si>
-    <t>string</t>
-  </si>
 </sst>
 </file>
 
@@ -43,9 +40,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -70,7 +67,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,13 +83,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,9 +95,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,9 +149,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,90 +174,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,31 +232,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,13 +382,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,133 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,24 +423,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,6 +437,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,21 +469,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -526,151 +499,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1037,7 @@
   <dimension ref="C3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1081,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:5">
